--- a/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
@@ -180,7 +180,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.03.31 16:24</t>
+    <t>2022.04.25 16:42</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -336,23 +336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="41.9921875" customWidth="true"/>
-    <col min="2" max="2" width="54.6875" customWidth="true"/>
-    <col min="3" max="3" width="16.40625" customWidth="true"/>
-    <col min="4" max="4" width="16.40625" customWidth="true"/>
-    <col min="5" max="5" width="16.40625" customWidth="true"/>
-    <col min="6" max="6" width="16.40625" customWidth="true"/>
-    <col min="7" max="7" width="16.40625" customWidth="true"/>
-    <col min="8" max="8" width="16.40625" customWidth="true"/>
-    <col min="9" max="9" width="16.40625" customWidth="true"/>
-    <col min="10" max="10" width="16.40625" customWidth="true"/>
-    <col min="11" max="11" width="16.40625" customWidth="true"/>
-    <col min="12" max="12" width="16.40625" customWidth="true"/>
-    <col min="13" max="13" width="16.40625" customWidth="true"/>
-    <col min="14" max="14" width="16.40625" customWidth="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="20"/>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" s="1" t="s">

--- a/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>Item</t>
   </si>
@@ -57,6 +57,9 @@
     <t>2021.4/4</t>
   </si>
   <si>
+    <t>2022.1/4</t>
+  </si>
+  <si>
     <t>All households (average)</t>
   </si>
   <si>
@@ -168,7 +171,7 @@
     <t>○ Search Period</t>
   </si>
   <si>
-    <t xml:space="preserve">[Quarterly] 201901~202104  </t>
+    <t xml:space="preserve">[Quarterly] 201901~202201  </t>
   </si>
   <si>
     <t>○ Source</t>
@@ -180,7 +183,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.04.25 16:42</t>
+    <t>2022.06.14 15:12</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -381,13 +384,16 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3.04</v>
@@ -425,13 +431,16 @@
       <c r="N2" s="5" t="n">
         <v>2.99</v>
       </c>
+      <c r="O2" s="5" t="n">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>52.07</v>
@@ -469,13 +478,16 @@
       <c r="N3" s="5" t="n">
         <v>52.68</v>
       </c>
+      <c r="O3" s="5" t="n">
+        <v>52.54</v>
+      </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>100.0</v>
@@ -513,13 +525,16 @@
       <c r="N4" s="5" t="n">
         <v>100.0</v>
       </c>
+      <c r="O4" s="5" t="n">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
       <c r="A5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>5313659.0</v>
@@ -557,13 +572,16 @@
       <c r="N5" s="3" t="n">
         <v>5394620.0</v>
       </c>
+      <c r="O5" s="3" t="n">
+        <v>5701390.0</v>
+      </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>5230985.0</v>
@@ -601,13 +619,16 @@
       <c r="N6" s="3" t="n">
         <v>5295093.0</v>
       </c>
+      <c r="O6" s="3" t="n">
+        <v>5602437.0</v>
+      </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>3591165.0</v>
@@ -645,13 +666,16 @@
       <c r="N7" s="3" t="n">
         <v>3591461.0</v>
       </c>
+      <c r="O7" s="3" t="n">
+        <v>3740654.0</v>
+      </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>930011.0</v>
@@ -689,13 +713,16 @@
       <c r="N8" s="3" t="n">
         <v>1029780.0</v>
       </c>
+      <c r="O8" s="3" t="n">
+        <v>984166.0</v>
+      </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>37470.0</v>
@@ -733,13 +760,16 @@
       <c r="N9" s="3" t="n">
         <v>29665.0</v>
       </c>
+      <c r="O9" s="3" t="n">
+        <v>35913.0</v>
+      </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>672339.0</v>
@@ -777,13 +807,16 @@
       <c r="N10" s="3" t="n">
         <v>644187.0</v>
       </c>
+      <c r="O10" s="3" t="n">
+        <v>841705.0</v>
+      </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>82674.0</v>
@@ -821,13 +854,16 @@
       <c r="N11" s="3" t="n">
         <v>99527.0</v>
       </c>
+      <c r="O11" s="3" t="n">
+        <v>98953.0</v>
+      </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>4240215.0</v>
@@ -865,13 +901,16 @@
       <c r="N12" s="3" t="n">
         <v>3978371.0</v>
       </c>
+      <c r="O12" s="3" t="n">
+        <v>4047929.0</v>
+      </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>3130166.0</v>
@@ -909,13 +948,16 @@
       <c r="N13" s="3" t="n">
         <v>2951339.0</v>
       </c>
+      <c r="O13" s="3" t="n">
+        <v>2905557.0</v>
+      </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>424750.0</v>
@@ -953,13 +995,16 @@
       <c r="N14" s="3" t="n">
         <v>455826.0</v>
       </c>
+      <c r="O14" s="3" t="n">
+        <v>445333.0</v>
+      </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>37112.0</v>
@@ -997,13 +1042,16 @@
       <c r="N15" s="3" t="n">
         <v>39516.0</v>
       </c>
+      <c r="O15" s="3" t="n">
+        <v>37136.0</v>
+      </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>171419.0</v>
@@ -1041,13 +1089,16 @@
       <c r="N16" s="3" t="n">
         <v>200972.0</v>
       </c>
+      <c r="O16" s="3" t="n">
+        <v>137761.0</v>
+      </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>351133.0</v>
@@ -1085,13 +1136,16 @@
       <c r="N17" s="3" t="n">
         <v>282023.0</v>
       </c>
+      <c r="O17" s="3" t="n">
+        <v>342107.0</v>
+      </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>155181.0</v>
@@ -1129,13 +1183,16 @@
       <c r="N18" s="3" t="n">
         <v>150283.0</v>
       </c>
+      <c r="O18" s="3" t="n">
+        <v>124813.0</v>
+      </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>258218.0</v>
@@ -1173,13 +1230,16 @@
       <c r="N19" s="3" t="n">
         <v>289757.0</v>
       </c>
+      <c r="O19" s="3" t="n">
+        <v>281935.0</v>
+      </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>315178.0</v>
@@ -1217,13 +1277,16 @@
       <c r="N20" s="3" t="n">
         <v>312548.0</v>
       </c>
+      <c r="O20" s="3" t="n">
+        <v>262631.0</v>
+      </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>141260.0</v>
@@ -1261,13 +1324,16 @@
       <c r="N21" s="3" t="n">
         <v>159680.0</v>
       </c>
+      <c r="O21" s="3" t="n">
+        <v>151747.0</v>
+      </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>250498.0</v>
@@ -1305,13 +1371,16 @@
       <c r="N22" s="3" t="n">
         <v>169394.0</v>
       </c>
+      <c r="O22" s="3" t="n">
+        <v>171470.0</v>
+      </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>366220.0</v>
@@ -1349,13 +1418,16 @@
       <c r="N23" s="3" t="n">
         <v>230539.0</v>
       </c>
+      <c r="O23" s="3" t="n">
+        <v>347507.0</v>
+      </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>406427.0</v>
@@ -1393,13 +1465,16 @@
       <c r="N24" s="3" t="n">
         <v>412429.0</v>
       </c>
+      <c r="O24" s="3" t="n">
+        <v>373276.0</v>
+      </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>249684.0</v>
@@ -1437,13 +1512,16 @@
       <c r="N25" s="3" t="n">
         <v>251744.0</v>
       </c>
+      <c r="O25" s="3" t="n">
+        <v>237661.0</v>
+      </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1110049.0</v>
@@ -1481,13 +1559,16 @@
       <c r="N26" s="3" t="n">
         <v>1027031.0</v>
       </c>
+      <c r="O26" s="3" t="n">
+        <v>1142372.0</v>
+      </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>4203610.0</v>
@@ -1525,13 +1606,16 @@
       <c r="N27" s="3" t="n">
         <v>4367589.0</v>
       </c>
+      <c r="O27" s="3" t="n">
+        <v>4559018.0</v>
+      </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1073443.0</v>
@@ -1569,13 +1653,16 @@
       <c r="N28" s="3" t="n">
         <v>1416249.0</v>
       </c>
+      <c r="O28" s="3" t="n">
+        <v>1653461.0</v>
+      </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>25.5</v>
@@ -1613,13 +1700,16 @@
       <c r="N29" s="4" t="n">
         <v>32.4</v>
       </c>
+      <c r="O29" s="4" t="n">
+        <v>36.3</v>
+      </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>74.5</v>
@@ -1657,13 +1747,16 @@
       <c r="N30" s="4" t="n">
         <v>67.6</v>
       </c>
+      <c r="O30" s="4" t="n">
+        <v>63.7</v>
+      </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>3.17</v>
@@ -1701,13 +1794,16 @@
       <c r="N31" s="5" t="n">
         <v>3.1</v>
       </c>
+      <c r="O31" s="5" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>48.52</v>
@@ -1745,13 +1841,16 @@
       <c r="N32" s="5" t="n">
         <v>49.17</v>
       </c>
+      <c r="O32" s="5" t="n">
+        <v>48.79</v>
+      </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>63.86</v>
@@ -1789,13 +1888,16 @@
       <c r="N33" s="5" t="n">
         <v>63.76</v>
       </c>
+      <c r="O33" s="5" t="n">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>6109986.0</v>
@@ -1833,13 +1935,16 @@
       <c r="N34" s="3" t="n">
         <v>6011535.0</v>
       </c>
+      <c r="O34" s="3" t="n">
+        <v>6434972.0</v>
+      </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>6022613.0</v>
@@ -1877,13 +1982,16 @@
       <c r="N35" s="3" t="n">
         <v>5891858.0</v>
       </c>
+      <c r="O35" s="3" t="n">
+        <v>6333017.0</v>
+      </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>5174940.0</v>
@@ -1921,13 +2029,16 @@
       <c r="N36" s="3" t="n">
         <v>5128548.0</v>
       </c>
+      <c r="O36" s="3" t="n">
+        <v>5416295.0</v>
+      </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>252604.0</v>
@@ -1965,13 +2076,16 @@
       <c r="N37" s="3" t="n">
         <v>272447.0</v>
       </c>
+      <c r="O37" s="3" t="n">
+        <v>270808.0</v>
+      </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>35546.0</v>
@@ -2009,13 +2123,16 @@
       <c r="N38" s="3" t="n">
         <v>23314.0</v>
       </c>
+      <c r="O38" s="3" t="n">
+        <v>24436.0</v>
+      </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>559523.0</v>
@@ -2053,13 +2170,16 @@
       <c r="N39" s="3" t="n">
         <v>467549.0</v>
       </c>
+      <c r="O39" s="3" t="n">
+        <v>621478.0</v>
+      </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>87372.0</v>
@@ -2097,13 +2217,16 @@
       <c r="N40" s="3" t="n">
         <v>119677.0</v>
       </c>
+      <c r="O40" s="3" t="n">
+        <v>101955.0</v>
+      </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>4656152.0</v>
@@ -2141,13 +2264,16 @@
       <c r="N41" s="3" t="n">
         <v>4368973.0</v>
       </c>
+      <c r="O41" s="3" t="n">
+        <v>4537945.0</v>
+      </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>3339934.0</v>
@@ -2185,13 +2311,16 @@
       <c r="N42" s="3" t="n">
         <v>3145117.0</v>
       </c>
+      <c r="O42" s="3" t="n">
+        <v>3146753.0</v>
+      </c>
     </row>
     <row r="43" ht="20.0" customHeight="true">
       <c r="A43" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>435090.0</v>
@@ -2229,13 +2358,16 @@
       <c r="N43" s="3" t="n">
         <v>453833.0</v>
       </c>
+      <c r="O43" s="3" t="n">
+        <v>456646.0</v>
+      </c>
     </row>
     <row r="44" ht="20.0" customHeight="true">
       <c r="A44" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>39382.0</v>
@@ -2273,13 +2405,16 @@
       <c r="N44" s="3" t="n">
         <v>41993.0</v>
       </c>
+      <c r="O44" s="3" t="n">
+        <v>39631.0</v>
+      </c>
     </row>
     <row r="45" ht="20.0" customHeight="true">
       <c r="A45" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>191228.0</v>
@@ -2317,13 +2452,16 @@
       <c r="N45" s="3" t="n">
         <v>219883.0</v>
       </c>
+      <c r="O45" s="3" t="n">
+        <v>153237.0</v>
+      </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
       <c r="A46" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>347071.0</v>
@@ -2361,13 +2499,16 @@
       <c r="N46" s="3" t="n">
         <v>281298.0</v>
       </c>
+      <c r="O46" s="3" t="n">
+        <v>340742.0</v>
+      </c>
     </row>
     <row r="47" ht="20.0" customHeight="true">
       <c r="A47" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>172346.0</v>
@@ -2405,13 +2546,16 @@
       <c r="N47" s="3" t="n">
         <v>162851.0</v>
       </c>
+      <c r="O47" s="3" t="n">
+        <v>138136.0</v>
+      </c>
     </row>
     <row r="48" ht="20.0" customHeight="true">
       <c r="A48" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>253969.0</v>
@@ -2449,13 +2593,16 @@
       <c r="N48" s="3" t="n">
         <v>279846.0</v>
       </c>
+      <c r="O48" s="3" t="n">
+        <v>279083.0</v>
+      </c>
     </row>
     <row r="49" ht="20.0" customHeight="true">
       <c r="A49" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>325293.0</v>
@@ -2493,13 +2640,16 @@
       <c r="N49" s="3" t="n">
         <v>341861.0</v>
       </c>
+      <c r="O49" s="3" t="n">
+        <v>306084.0</v>
+      </c>
     </row>
     <row r="50" ht="20.0" customHeight="true">
       <c r="A50" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>147154.0</v>
@@ -2537,13 +2687,16 @@
       <c r="N50" s="3" t="n">
         <v>170819.0</v>
       </c>
+      <c r="O50" s="3" t="n">
+        <v>158072.0</v>
+      </c>
     </row>
     <row r="51" ht="20.0" customHeight="true">
       <c r="A51" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>277460.0</v>
@@ -2581,13 +2734,16 @@
       <c r="N51" s="3" t="n">
         <v>188929.0</v>
       </c>
+      <c r="O51" s="3" t="n">
+        <v>192291.0</v>
+      </c>
     </row>
     <row r="52" ht="20.0" customHeight="true">
       <c r="A52" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>411908.0</v>
@@ -2625,13 +2781,16 @@
       <c r="N52" s="3" t="n">
         <v>275085.0</v>
       </c>
+      <c r="O52" s="3" t="n">
+        <v>408937.0</v>
+      </c>
     </row>
     <row r="53" ht="20.0" customHeight="true">
       <c r="A53" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>463374.0</v>
@@ -2669,13 +2828,16 @@
       <c r="N53" s="3" t="n">
         <v>461022.0</v>
       </c>
+      <c r="O53" s="3" t="n">
+        <v>420919.0</v>
+      </c>
     </row>
     <row r="54" ht="20.0" customHeight="true">
       <c r="A54" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>271028.0</v>
@@ -2713,13 +2875,16 @@
       <c r="N54" s="3" t="n">
         <v>271669.0</v>
       </c>
+      <c r="O54" s="3" t="n">
+        <v>260366.0</v>
+      </c>
     </row>
     <row r="55" ht="20.0" customHeight="true">
       <c r="A55" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>1316218.0</v>
@@ -2757,13 +2922,16 @@
       <c r="N55" s="3" t="n">
         <v>1223856.0</v>
       </c>
+      <c r="O55" s="3" t="n">
+        <v>1391192.0</v>
+      </c>
     </row>
     <row r="56" ht="20.0" customHeight="true">
       <c r="A56" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>4793768.0</v>
@@ -2801,13 +2969,16 @@
       <c r="N56" s="3" t="n">
         <v>4787680.0</v>
       </c>
+      <c r="O56" s="3" t="n">
+        <v>5043780.0</v>
+      </c>
     </row>
     <row r="57" ht="20.0" customHeight="true">
       <c r="A57" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>1453834.0</v>
@@ -2845,13 +3016,16 @@
       <c r="N57" s="3" t="n">
         <v>1642562.0</v>
       </c>
+      <c r="O57" s="3" t="n">
+        <v>1897027.0</v>
+      </c>
     </row>
     <row r="58" ht="20.0" customHeight="true">
       <c r="A58" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>30.3</v>
@@ -2889,13 +3063,16 @@
       <c r="N58" s="4" t="n">
         <v>34.3</v>
       </c>
+      <c r="O58" s="4" t="n">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="59" ht="20.0" customHeight="true">
       <c r="A59" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>69.7</v>
@@ -2932,6 +3109,9 @@
       </c>
       <c r="N59" s="4" t="n">
         <v>65.7</v>
+      </c>
+      <c r="O59" s="4" t="n">
+        <v>62.4</v>
       </c>
     </row>
   </sheetData>
@@ -2949,58 +3129,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_KOS.xlsx
@@ -183,7 +183,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.06.14 15:12</t>
+    <t>2022.06.27 16:27</t>
   </si>
   <si>
     <t>○ Table URL</t>
